--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Lgi4-Adam23.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Lgi4-Adam23.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,25 +76,25 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Lgi4</t>
+  </si>
+  <si>
+    <t>Adam23</t>
+  </si>
+  <si>
     <t>ECs</t>
   </si>
   <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Lgi4</t>
-  </si>
-  <si>
-    <t>Adam23</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
         <v>25</v>
       </c>
-      <c r="C2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.212949</v>
+        <v>3.123305</v>
       </c>
       <c r="H2">
-        <v>0.6388470000000001</v>
+        <v>9.369915000000001</v>
       </c>
       <c r="I2">
-        <v>0.01692613415997515</v>
+        <v>0.7468342151689542</v>
       </c>
       <c r="J2">
-        <v>0.02207283499662091</v>
+        <v>0.7986358970573708</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.1790343333333333</v>
+        <v>0.09286699999999999</v>
       </c>
       <c r="N2">
-        <v>0.537103</v>
+        <v>0.278601</v>
       </c>
       <c r="O2">
-        <v>0.00485560647444994</v>
+        <v>0.003009076821730935</v>
       </c>
       <c r="P2">
-        <v>0.00522711558998419</v>
+        <v>0.003071957783644885</v>
       </c>
       <c r="Q2">
-        <v>0.038125182249</v>
+        <v>0.290051965435</v>
       </c>
       <c r="R2">
-        <v>0.343126640241</v>
+        <v>2.610467688915</v>
       </c>
       <c r="S2">
-        <v>8.218664661458363E-05</v>
+        <v>0.002247281526540514</v>
       </c>
       <c r="T2">
-        <v>0.0001153772599259858</v>
+        <v>0.002453375760263605</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.212949</v>
+        <v>3.123305</v>
       </c>
       <c r="H3">
-        <v>0.6388470000000001</v>
+        <v>9.369915000000001</v>
       </c>
       <c r="I3">
-        <v>0.01692613415997515</v>
+        <v>0.7468342151689542</v>
       </c>
       <c r="J3">
-        <v>0.02207283499662091</v>
+        <v>0.7986358970573708</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>85.851541</v>
       </c>
       <c r="O3">
-        <v>0.7761291564580808</v>
+        <v>0.9272539658256183</v>
       </c>
       <c r="P3">
-        <v>0.8355118634326505</v>
+        <v>0.9466308793322996</v>
       </c>
       <c r="Q3">
-        <v>6.093999934803001</v>
+        <v>89.38018242100168</v>
       </c>
       <c r="R3">
-        <v>54.84599941322701</v>
+        <v>804.421641789015</v>
       </c>
       <c r="S3">
-        <v>0.01313686622767782</v>
+        <v>0.6925049878296758</v>
       </c>
       <c r="T3">
-        <v>0.01844211549926816</v>
+        <v>0.7560134014977589</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.212949</v>
+        <v>3.123305</v>
       </c>
       <c r="H4">
-        <v>0.6388470000000001</v>
+        <v>9.369915000000001</v>
       </c>
       <c r="I4">
-        <v>0.01692613415997515</v>
+        <v>0.7468342151689542</v>
       </c>
       <c r="J4">
-        <v>0.02207283499662091</v>
+        <v>0.7986358970573708</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.184753</v>
+        <v>0.243062</v>
       </c>
       <c r="N4">
-        <v>0.5542589999999999</v>
+        <v>0.729186</v>
       </c>
       <c r="O4">
-        <v>0.005010702954409395</v>
+        <v>0.007875695677081898</v>
       </c>
       <c r="P4">
-        <v>0.005394078714490605</v>
+        <v>0.00804027483183793</v>
       </c>
       <c r="Q4">
-        <v>0.039342966597</v>
+        <v>0.7591567599100001</v>
       </c>
       <c r="R4">
-        <v>0.354086699373</v>
+        <v>6.83241083919</v>
       </c>
       <c r="S4">
-        <v>8.481183044211725E-05</v>
+        <v>0.005881838999902985</v>
       </c>
       <c r="T4">
-        <v>0.0001190626094237362</v>
+        <v>0.006421252102912687</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,31 +711,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.212949</v>
+        <v>3.123305</v>
       </c>
       <c r="H5">
-        <v>0.6388470000000001</v>
+        <v>9.369915000000001</v>
       </c>
       <c r="I5">
-        <v>0.01692613415997515</v>
+        <v>0.7468342151689542</v>
       </c>
       <c r="J5">
-        <v>0.02207283499662091</v>
+        <v>0.7986358970573708</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.8617905</v>
+        <v>1.8951925</v>
       </c>
       <c r="N5">
-        <v>15.723581</v>
+        <v>3.790385</v>
       </c>
       <c r="O5">
-        <v>0.2132203368026377</v>
+        <v>0.06140803325689756</v>
       </c>
       <c r="P5">
-        <v>0.1530227449399449</v>
+        <v>0.04179418847656979</v>
       </c>
       <c r="Q5">
-        <v>1.6741604251845</v>
+        <v>5.919264211212501</v>
       </c>
       <c r="R5">
-        <v>10.044962551107</v>
+        <v>35.515585267275</v>
       </c>
       <c r="S5">
-        <v>0.003608996026356532</v>
+        <v>0.04586162032248413</v>
       </c>
       <c r="T5">
-        <v>0.00337764579978941</v>
+        <v>0.03337833920577014</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>26</v>
       </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>3.123305</v>
+      </c>
+      <c r="H6">
+        <v>9.369915000000001</v>
+      </c>
+      <c r="I6">
+        <v>0.7468342151689542</v>
+      </c>
+      <c r="J6">
+        <v>0.7986358970573708</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G6">
-        <v>0.212949</v>
-      </c>
-      <c r="H6">
-        <v>0.6388470000000001</v>
-      </c>
-      <c r="I6">
-        <v>0.01692613415997515</v>
-      </c>
-      <c r="J6">
-        <v>0.02207283499662091</v>
-      </c>
-      <c r="K6">
-        <v>2</v>
-      </c>
-      <c r="L6">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="M6">
-        <v>0.02891466666666667</v>
+        <v>0.01398766666666667</v>
       </c>
       <c r="N6">
-        <v>0.086744</v>
+        <v>0.041963</v>
       </c>
       <c r="O6">
-        <v>0.0007841973104221829</v>
+        <v>0.000453228418671488</v>
       </c>
       <c r="P6">
-        <v>0.0008441973229298452</v>
+        <v>0.0004626995756479349</v>
       </c>
       <c r="Q6">
-        <v>0.006157349352000002</v>
+        <v>0.04368774923833334</v>
       </c>
       <c r="R6">
-        <v>0.055416144168</v>
+        <v>0.393189743145</v>
       </c>
       <c r="S6">
-        <v>1.327342888409754E-05</v>
+        <v>0.0003384864903507869</v>
       </c>
       <c r="T6">
-        <v>1.863382821361957E-05</v>
+        <v>0.0003695284906656533</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>3.123305</v>
+        <v>0.2449753333333333</v>
       </c>
       <c r="H7">
-        <v>9.369915000000001</v>
+        <v>0.734926</v>
       </c>
       <c r="I7">
-        <v>0.2482541803554897</v>
+        <v>0.0585776799914683</v>
       </c>
       <c r="J7">
-        <v>0.3237404069008122</v>
+        <v>0.06264072676014512</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.1790343333333333</v>
+        <v>0.09286699999999999</v>
       </c>
       <c r="N7">
-        <v>0.537103</v>
+        <v>0.278601</v>
       </c>
       <c r="O7">
-        <v>0.00485560647444994</v>
+        <v>0.003009076821730935</v>
       </c>
       <c r="P7">
-        <v>0.00522711558998419</v>
+        <v>0.003071957783644885</v>
       </c>
       <c r="Q7">
-        <v>0.5591788284716667</v>
+        <v>0.02275012428066666</v>
       </c>
       <c r="R7">
-        <v>5.032609456245</v>
+        <v>0.204751118526</v>
       </c>
       <c r="S7">
-        <v>0.001205424605443379</v>
+        <v>0.0001762647391330992</v>
       </c>
       <c r="T7">
-        <v>0.001692228528019061</v>
+        <v>0.0001924296681440003</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,31 +897,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>3.123305</v>
+        <v>0.2449753333333333</v>
       </c>
       <c r="H8">
-        <v>9.369915000000001</v>
+        <v>0.734926</v>
       </c>
       <c r="I8">
-        <v>0.2482541803554897</v>
+        <v>0.0585776799914683</v>
       </c>
       <c r="J8">
-        <v>0.3237404069008122</v>
+        <v>0.06264072676014512</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>85.851541</v>
       </c>
       <c r="O8">
-        <v>0.7761291564580808</v>
+        <v>0.9272539658256183</v>
       </c>
       <c r="P8">
-        <v>0.8355118634326505</v>
+        <v>0.9466308793322996</v>
       </c>
       <c r="Q8">
-        <v>89.38018242100168</v>
+        <v>7.010503291218444</v>
       </c>
       <c r="R8">
-        <v>804.421641789015</v>
+        <v>63.09452962096599</v>
       </c>
       <c r="S8">
-        <v>0.1926773075864985</v>
+        <v>0.05431638608095295</v>
       </c>
       <c r="T8">
-        <v>0.2704889506381422</v>
+        <v>0.05929764625497048</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.2449753333333333</v>
+      </c>
+      <c r="H9">
+        <v>0.734926</v>
+      </c>
+      <c r="I9">
+        <v>0.0585776799914683</v>
+      </c>
+      <c r="J9">
+        <v>0.06264072676014512</v>
+      </c>
+      <c r="K9">
         <v>3</v>
       </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>3.123305</v>
-      </c>
-      <c r="H9">
-        <v>9.369915000000001</v>
-      </c>
-      <c r="I9">
-        <v>0.2482541803554897</v>
-      </c>
-      <c r="J9">
-        <v>0.3237404069008122</v>
-      </c>
-      <c r="K9">
-        <v>2</v>
-      </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.184753</v>
+        <v>0.243062</v>
       </c>
       <c r="N9">
-        <v>0.5542589999999999</v>
+        <v>0.729186</v>
       </c>
       <c r="O9">
-        <v>0.005010702954409395</v>
+        <v>0.007875695677081898</v>
       </c>
       <c r="P9">
-        <v>0.005394078714490605</v>
+        <v>0.00804027483183793</v>
       </c>
       <c r="Q9">
-        <v>0.577039968665</v>
+        <v>0.05954419447066667</v>
       </c>
       <c r="R9">
-        <v>5.193359717985</v>
+        <v>0.5358977502359999</v>
       </c>
       <c r="S9">
-        <v>0.001243927954951735</v>
+        <v>0.0004613399810822937</v>
       </c>
       <c r="T9">
-        <v>0.001746281237884199</v>
+        <v>0.0005036486588176315</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,31 +1021,31 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>3.123305</v>
+        <v>0.2449753333333333</v>
       </c>
       <c r="H10">
-        <v>9.369915000000001</v>
+        <v>0.734926</v>
       </c>
       <c r="I10">
-        <v>0.2482541803554897</v>
+        <v>0.0585776799914683</v>
       </c>
       <c r="J10">
-        <v>0.3237404069008122</v>
+        <v>0.06264072676014512</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.8617905</v>
+        <v>1.8951925</v>
       </c>
       <c r="N10">
-        <v>15.723581</v>
+        <v>3.790385</v>
       </c>
       <c r="O10">
-        <v>0.2132203368026377</v>
+        <v>0.06140803325689756</v>
       </c>
       <c r="P10">
-        <v>0.1530227449399449</v>
+        <v>0.04179418847656979</v>
       </c>
       <c r="Q10">
-        <v>24.5547695776025</v>
+        <v>0.4642754144183333</v>
       </c>
       <c r="R10">
-        <v>147.328617465615</v>
+        <v>2.78565248651</v>
       </c>
       <c r="S10">
-        <v>0.05293283994806027</v>
+        <v>0.003597140121027988</v>
       </c>
       <c r="T10">
-        <v>0.04953964571193695</v>
+        <v>0.002618018340522814</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>26</v>
       </c>
-      <c r="D11" t="s">
-        <v>24</v>
-      </c>
       <c r="E11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>3.123305</v>
+        <v>0.2449753333333333</v>
       </c>
       <c r="H11">
-        <v>9.369915000000001</v>
+        <v>0.734926</v>
       </c>
       <c r="I11">
-        <v>0.2482541803554897</v>
+        <v>0.0585776799914683</v>
       </c>
       <c r="J11">
-        <v>0.3237404069008122</v>
+        <v>0.06264072676014512</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.02891466666666667</v>
+        <v>0.01398766666666667</v>
       </c>
       <c r="N11">
-        <v>0.086744</v>
+        <v>0.041963</v>
       </c>
       <c r="O11">
-        <v>0.0007841973104221829</v>
+        <v>0.000453228418671488</v>
       </c>
       <c r="P11">
-        <v>0.0008441973229298452</v>
+        <v>0.0004626995756479349</v>
       </c>
       <c r="Q11">
-        <v>0.09030932297333334</v>
+        <v>0.003426633304222222</v>
       </c>
       <c r="R11">
-        <v>0.8127839067600001</v>
+        <v>0.030839699738</v>
       </c>
       <c r="S11">
-        <v>0.0001946802605358385</v>
+        <v>2.654906927197764E-05</v>
       </c>
       <c r="T11">
-        <v>0.0002733007848298845</v>
+        <v>2.898383769019739E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
         <v>25</v>
       </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" t="s">
-        <v>20</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.15464</v>
+        <v>0.813779</v>
       </c>
       <c r="H12">
-        <v>0.46392</v>
+        <v>1.627558</v>
       </c>
       <c r="I12">
-        <v>0.01229147536029076</v>
+        <v>0.1945881048395774</v>
       </c>
       <c r="J12">
-        <v>0.01602892337544416</v>
+        <v>0.1387233761824841</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.1790343333333333</v>
+        <v>0.09286699999999999</v>
       </c>
       <c r="N12">
-        <v>0.537103</v>
+        <v>0.278601</v>
       </c>
       <c r="O12">
-        <v>0.00485560647444994</v>
+        <v>0.003009076821730935</v>
       </c>
       <c r="P12">
-        <v>0.00522711558998419</v>
+        <v>0.003071957783644885</v>
       </c>
       <c r="Q12">
-        <v>0.02768586930666667</v>
+        <v>0.07557321439299999</v>
       </c>
       <c r="R12">
-        <v>0.24917282376</v>
+        <v>0.453439286358</v>
       </c>
       <c r="S12">
-        <v>5.968256733996971E-05</v>
+        <v>0.0005855305560573216</v>
       </c>
       <c r="T12">
-        <v>8.378503526644615E-05</v>
+        <v>0.0004261523552372794</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,31 +1207,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.15464</v>
+        <v>0.813779</v>
       </c>
       <c r="H13">
-        <v>0.46392</v>
+        <v>1.627558</v>
       </c>
       <c r="I13">
-        <v>0.01229147536029076</v>
+        <v>0.1945881048395774</v>
       </c>
       <c r="J13">
-        <v>0.01602892337544416</v>
+        <v>0.1387233761824841</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>85.851541</v>
       </c>
       <c r="O13">
-        <v>0.7761291564580808</v>
+        <v>0.9272539658256183</v>
       </c>
       <c r="P13">
-        <v>0.8355118634326505</v>
+        <v>0.9466308793322996</v>
       </c>
       <c r="Q13">
-        <v>4.425360766746667</v>
+        <v>23.28806039447967</v>
       </c>
       <c r="R13">
-        <v>39.82824690072</v>
+        <v>139.728362366878</v>
       </c>
       <c r="S13">
-        <v>0.009539772403007749</v>
+        <v>0.1804325919149893</v>
       </c>
       <c r="T13">
-        <v>0.01339235563823652</v>
+        <v>0.1313198315795703</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.15464</v>
+        <v>0.813779</v>
       </c>
       <c r="H14">
-        <v>0.46392</v>
+        <v>1.627558</v>
       </c>
       <c r="I14">
-        <v>0.01229147536029076</v>
+        <v>0.1945881048395774</v>
       </c>
       <c r="J14">
-        <v>0.01602892337544416</v>
+        <v>0.1387233761824841</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.184753</v>
+        <v>0.243062</v>
       </c>
       <c r="N14">
-        <v>0.5542589999999999</v>
+        <v>0.729186</v>
       </c>
       <c r="O14">
-        <v>0.005010702954409395</v>
+        <v>0.007875695677081898</v>
       </c>
       <c r="P14">
-        <v>0.005394078714490605</v>
+        <v>0.00804027483183793</v>
       </c>
       <c r="Q14">
-        <v>0.02857020392</v>
+        <v>0.197798751298</v>
       </c>
       <c r="R14">
-        <v>0.25713183528</v>
+        <v>1.186792507788</v>
       </c>
       <c r="S14">
-        <v>6.158893190185918E-05</v>
+        <v>0.001532516696096619</v>
       </c>
       <c r="T14">
-        <v>8.646127439568422E-05</v>
+        <v>0.001115374070107612</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,31 +1331,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.15464</v>
+        <v>0.813779</v>
       </c>
       <c r="H15">
-        <v>0.46392</v>
+        <v>1.627558</v>
       </c>
       <c r="I15">
-        <v>0.01229147536029076</v>
+        <v>0.1945881048395774</v>
       </c>
       <c r="J15">
-        <v>0.01602892337544416</v>
+        <v>0.1387233761824841</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>7.8617905</v>
+        <v>1.8951925</v>
       </c>
       <c r="N15">
-        <v>15.723581</v>
+        <v>3.790385</v>
       </c>
       <c r="O15">
-        <v>0.2132203368026377</v>
+        <v>0.06140803325689756</v>
       </c>
       <c r="P15">
-        <v>0.1530227449399449</v>
+        <v>0.04179418847656979</v>
       </c>
       <c r="Q15">
-        <v>1.21574728292</v>
+        <v>1.5422678574575</v>
       </c>
       <c r="R15">
-        <v>7.29448369752</v>
+        <v>6.169071429830001</v>
       </c>
       <c r="S15">
-        <v>0.002620792516122518</v>
+        <v>0.01194927281338544</v>
       </c>
       <c r="T15">
-        <v>0.002452789853342511</v>
+        <v>0.005797830930276831</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,681 +1393,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
         <v>26</v>
       </c>
-      <c r="D16" t="s">
-        <v>24</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.813779</v>
+      </c>
+      <c r="H16">
+        <v>1.627558</v>
+      </c>
+      <c r="I16">
+        <v>0.1945881048395774</v>
+      </c>
+      <c r="J16">
+        <v>0.1387233761824841</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G16">
-        <v>0.15464</v>
-      </c>
-      <c r="H16">
-        <v>0.46392</v>
-      </c>
-      <c r="I16">
-        <v>0.01229147536029076</v>
-      </c>
-      <c r="J16">
-        <v>0.01602892337544416</v>
-      </c>
-      <c r="K16">
-        <v>2</v>
-      </c>
-      <c r="L16">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="M16">
-        <v>0.02891466666666667</v>
+        <v>0.01398766666666667</v>
       </c>
       <c r="N16">
-        <v>0.086744</v>
+        <v>0.041963</v>
       </c>
       <c r="O16">
-        <v>0.0007841973104221829</v>
+        <v>0.000453228418671488</v>
       </c>
       <c r="P16">
-        <v>0.0008441973229298452</v>
+        <v>0.0004626995756479349</v>
       </c>
       <c r="Q16">
-        <v>0.004471364053333334</v>
+        <v>0.01138286939233333</v>
       </c>
       <c r="R16">
-        <v>0.04024227648</v>
+        <v>0.068297216354</v>
       </c>
       <c r="S16">
-        <v>9.638941918660543E-06</v>
+        <v>8.81928590487234E-05</v>
       </c>
       <c r="T16">
-        <v>1.353157420299757E-05</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>8.800551500000001</v>
-      </c>
-      <c r="H17">
-        <v>17.601103</v>
-      </c>
-      <c r="I17">
-        <v>0.6995069963736411</v>
-      </c>
-      <c r="J17">
-        <v>0.6081365996514491</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>0.1790343333333333</v>
-      </c>
-      <c r="N17">
-        <v>0.537103</v>
-      </c>
-      <c r="O17">
-        <v>0.00485560647444994</v>
-      </c>
-      <c r="P17">
-        <v>0.00522711558998419</v>
-      </c>
-      <c r="Q17">
-        <v>1.575600870768167</v>
-      </c>
-      <c r="R17">
-        <v>9.453605224609001</v>
-      </c>
-      <c r="S17">
-        <v>0.003396530700514883</v>
-      </c>
-      <c r="T17">
-        <v>0.003178800300878063</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18">
-        <v>2</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>8.800551500000001</v>
-      </c>
-      <c r="H18">
-        <v>17.601103</v>
-      </c>
-      <c r="I18">
-        <v>0.6995069963736411</v>
-      </c>
-      <c r="J18">
-        <v>0.6081365996514491</v>
-      </c>
-      <c r="K18">
-        <v>3</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>28.61718033333333</v>
-      </c>
-      <c r="N18">
-        <v>85.851541</v>
-      </c>
-      <c r="O18">
-        <v>0.7761291564580808</v>
-      </c>
-      <c r="P18">
-        <v>0.8355118634326505</v>
-      </c>
-      <c r="Q18">
-        <v>251.8469693082872</v>
-      </c>
-      <c r="R18">
-        <v>1511.081815849723</v>
-      </c>
-      <c r="S18">
-        <v>0.5429077750319998</v>
-      </c>
-      <c r="T18">
-        <v>0.5081053435963779</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19">
-        <v>2</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>8.800551500000001</v>
-      </c>
-      <c r="H19">
-        <v>17.601103</v>
-      </c>
-      <c r="I19">
-        <v>0.6995069963736411</v>
-      </c>
-      <c r="J19">
-        <v>0.6081365996514491</v>
-      </c>
-      <c r="K19">
-        <v>2</v>
-      </c>
-      <c r="L19">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M19">
-        <v>0.184753</v>
-      </c>
-      <c r="N19">
-        <v>0.5542589999999999</v>
-      </c>
-      <c r="O19">
-        <v>0.005010702954409395</v>
-      </c>
-      <c r="P19">
-        <v>0.005394078714490605</v>
-      </c>
-      <c r="Q19">
-        <v>1.6259282912795</v>
-      </c>
-      <c r="R19">
-        <v>9.755569747677001</v>
-      </c>
-      <c r="S19">
-        <v>0.003505021773359446</v>
-      </c>
-      <c r="T19">
-        <v>0.003280336687682576</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20">
-        <v>2</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>8.800551500000001</v>
-      </c>
-      <c r="H20">
-        <v>17.601103</v>
-      </c>
-      <c r="I20">
-        <v>0.6995069963736411</v>
-      </c>
-      <c r="J20">
-        <v>0.6081365996514491</v>
-      </c>
-      <c r="K20">
-        <v>2</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>7.8617905</v>
-      </c>
-      <c r="N20">
-        <v>15.723581</v>
-      </c>
-      <c r="O20">
-        <v>0.2132203368026377</v>
-      </c>
-      <c r="P20">
-        <v>0.1530227449399449</v>
-      </c>
-      <c r="Q20">
-        <v>69.18809217746076</v>
-      </c>
-      <c r="R20">
-        <v>276.752368709843</v>
-      </c>
-      <c r="S20">
-        <v>0.1491491173625892</v>
-      </c>
-      <c r="T20">
-        <v>0.09305873177710905</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21">
-        <v>2</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>8.800551500000001</v>
-      </c>
-      <c r="H21">
-        <v>17.601103</v>
-      </c>
-      <c r="I21">
-        <v>0.6995069963736411</v>
-      </c>
-      <c r="J21">
-        <v>0.6081365996514491</v>
-      </c>
-      <c r="K21">
-        <v>2</v>
-      </c>
-      <c r="L21">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M21">
-        <v>0.02891466666666667</v>
-      </c>
-      <c r="N21">
-        <v>0.086744</v>
-      </c>
-      <c r="O21">
-        <v>0.0007841973104221829</v>
-      </c>
-      <c r="P21">
-        <v>0.0008441973229298452</v>
-      </c>
-      <c r="Q21">
-        <v>0.2544650131053334</v>
-      </c>
-      <c r="R21">
-        <v>1.526790078632</v>
-      </c>
-      <c r="S21">
-        <v>0.000548551505177709</v>
-      </c>
-      <c r="T21">
-        <v>0.0005133872894014124</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>2</v>
-      </c>
-      <c r="F22">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G22">
-        <v>0.2896316666666667</v>
-      </c>
-      <c r="H22">
-        <v>0.868895</v>
-      </c>
-      <c r="I22">
-        <v>0.0230212137506032</v>
-      </c>
-      <c r="J22">
-        <v>0.03002123507567371</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>0.1790343333333333</v>
-      </c>
-      <c r="N22">
-        <v>0.537103</v>
-      </c>
-      <c r="O22">
-        <v>0.00485560647444994</v>
-      </c>
-      <c r="P22">
-        <v>0.00522711558998419</v>
-      </c>
-      <c r="Q22">
-        <v>0.05185401235388889</v>
-      </c>
-      <c r="R22">
-        <v>0.466686111185</v>
-      </c>
-      <c r="S22">
-        <v>0.0001117819545371249</v>
-      </c>
-      <c r="T22">
-        <v>0.0001569244658946342</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>2</v>
-      </c>
-      <c r="F23">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G23">
-        <v>0.2896316666666667</v>
-      </c>
-      <c r="H23">
-        <v>0.868895</v>
-      </c>
-      <c r="I23">
-        <v>0.0230212137506032</v>
-      </c>
-      <c r="J23">
-        <v>0.03002123507567371</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>28.61718033333333</v>
-      </c>
-      <c r="N23">
-        <v>85.851541</v>
-      </c>
-      <c r="O23">
-        <v>0.7761291564580808</v>
-      </c>
-      <c r="P23">
-        <v>0.8355118634326505</v>
-      </c>
-      <c r="Q23">
-        <v>8.28844163524389</v>
-      </c>
-      <c r="R23">
-        <v>74.59597471719499</v>
-      </c>
-      <c r="S23">
-        <v>0.01786743520889683</v>
-      </c>
-      <c r="T23">
-        <v>0.02508309806062579</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24">
-        <v>2</v>
-      </c>
-      <c r="F24">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G24">
-        <v>0.2896316666666667</v>
-      </c>
-      <c r="H24">
-        <v>0.868895</v>
-      </c>
-      <c r="I24">
-        <v>0.0230212137506032</v>
-      </c>
-      <c r="J24">
-        <v>0.03002123507567371</v>
-      </c>
-      <c r="K24">
-        <v>2</v>
-      </c>
-      <c r="L24">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M24">
-        <v>0.184753</v>
-      </c>
-      <c r="N24">
-        <v>0.5542589999999999</v>
-      </c>
-      <c r="O24">
-        <v>0.005010702954409395</v>
-      </c>
-      <c r="P24">
-        <v>0.005394078714490605</v>
-      </c>
-      <c r="Q24">
-        <v>0.05351031931166666</v>
-      </c>
-      <c r="R24">
-        <v>0.4815928738049999</v>
-      </c>
-      <c r="S24">
-        <v>0.0001153524637542376</v>
-      </c>
-      <c r="T24">
-        <v>0.0001619369051044103</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25">
-        <v>2</v>
-      </c>
-      <c r="F25">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G25">
-        <v>0.2896316666666667</v>
-      </c>
-      <c r="H25">
-        <v>0.868895</v>
-      </c>
-      <c r="I25">
-        <v>0.0230212137506032</v>
-      </c>
-      <c r="J25">
-        <v>0.03002123507567371</v>
-      </c>
-      <c r="K25">
-        <v>2</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>7.8617905</v>
-      </c>
-      <c r="N25">
-        <v>15.723581</v>
-      </c>
-      <c r="O25">
-        <v>0.2132203368026377</v>
-      </c>
-      <c r="P25">
-        <v>0.1530227449399449</v>
-      </c>
-      <c r="Q25">
-        <v>2.277023485499166</v>
-      </c>
-      <c r="R25">
-        <v>13.662140912995</v>
-      </c>
-      <c r="S25">
-        <v>0.004908590949509128</v>
-      </c>
-      <c r="T25">
-        <v>0.004593931797766944</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26">
-        <v>2</v>
-      </c>
-      <c r="F26">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G26">
-        <v>0.2896316666666667</v>
-      </c>
-      <c r="H26">
-        <v>0.868895</v>
-      </c>
-      <c r="I26">
-        <v>0.0230212137506032</v>
-      </c>
-      <c r="J26">
-        <v>0.03002123507567371</v>
-      </c>
-      <c r="K26">
-        <v>2</v>
-      </c>
-      <c r="L26">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M26">
-        <v>0.02891466666666667</v>
-      </c>
-      <c r="N26">
-        <v>0.086744</v>
-      </c>
-      <c r="O26">
-        <v>0.0007841973104221829</v>
-      </c>
-      <c r="P26">
-        <v>0.0008441973229298452</v>
-      </c>
-      <c r="Q26">
-        <v>0.008374603097777778</v>
-      </c>
-      <c r="R26">
-        <v>0.07537142787999999</v>
-      </c>
-      <c r="S26">
-        <v>1.80531739058772E-05</v>
-      </c>
-      <c r="T26">
-        <v>2.534384628193131E-05</v>
+        <v>6.418724729208422E-05</v>
       </c>
     </row>
   </sheetData>
